--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329277.2234015121</v>
+        <v>373138.7206737992</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216107</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8108799.133962174</v>
+        <v>8127738.529267559</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>114.562562600275</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.9498537117367</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>63.09559514993693</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -865,19 +865,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>124.2978721248575</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>295.7372906054832</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>131.3089131981287</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>131.232492817465</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>168.7831592316995</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,10 +1145,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>177.9326461527353</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>145.3286161890165</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.670777199071</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287224</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>212.1880754063494</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4556968337259</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>248.939187145453</v>
       </c>
       <c r="V16" t="n">
-        <v>195.8910553508163</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245693</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>90.97964783088963</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.97358346682183</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482739</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>381.8187305775014</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112151</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>32.67077719907189</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.98021706930174</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>236.0263989200893</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>136.1614161296823</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>195.8910553508166</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225757</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>30.11288841831361</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>224.7808493642469</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.24391673888124</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.694206920162</v>
+        <v>977.1376979168679</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.974446717864</v>
+        <v>943.0356291406952</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>507.1258443151397</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>73.35109947343491</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797684</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2235.297000382374</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1976.074697699391</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1827.64050203097</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1422.785047442004</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>1407.682988061718</v>
       </c>
       <c r="Y2" t="n">
-        <v>1456.953373364666</v>
+        <v>999.3968643613716</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1550.212202599065</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="U4" t="n">
-        <v>1550.212202599065</v>
+        <v>1996.272036765809</v>
       </c>
       <c r="V4" t="n">
-        <v>1550.212202599065</v>
+        <v>1709.31652863624</v>
       </c>
       <c r="W4" t="n">
-        <v>1550.212202599065</v>
+        <v>1437.290124222531</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.820447932477</v>
+        <v>1191.898369555944</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1191.898369555944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035833</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D5" t="n">
-        <v>386.2295709184319</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E5" t="n">
-        <v>356.4952301171311</v>
+        <v>210.2802973085725</v>
       </c>
       <c r="F5" t="n">
-        <v>332.6682045667429</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043673</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1138.086720109246</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1138.086720109246</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.086720109246</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.086720109246</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>910.6670494233545</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851946</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075773</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.544264447794</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>753.7695196060888</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>325.9020900152966</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152966</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851288</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576097</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576097</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576097</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576097</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567064</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626547</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377081</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996796</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296449</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230041</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897047</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842797</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.17014684507</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>854.6084353282946</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298173</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805545</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423107</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681384</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851288</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851288</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851288</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851288</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264739</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718763</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729521</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955302</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925644</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925644</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925644</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925644</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925644</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925644</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925644</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1691.800190916536</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1446.408436249949</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.988765564057</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,16 +5048,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
         <v>4836.798834055759</v>
@@ -5066,22 +5066,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
         <v>2949.674754547032</v>
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5176,10 +5176,10 @@
         <v>947.2320137580464</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
@@ -5188,16 +5188,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5206,7 +5206,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5227,13 +5227,13 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243222</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984729</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168152</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342597</v>
+        <v>1462.256484342599</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500892</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099100996</v>
+        <v>600.6143099101018</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333634</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693461</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693461</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263767</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097163</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179639</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590672</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169983</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469637</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>833.2090904562755</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508969</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524196</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2056.82104707102</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.972017833859</v>
+        <v>1769.86553894145</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.945613420151</v>
+        <v>1497.839134527742</v>
       </c>
       <c r="X16" t="n">
-        <v>1314.553858753564</v>
+        <v>1252.447379861154</v>
       </c>
       <c r="Y16" t="n">
-        <v>1087.134188067672</v>
+        <v>1025.027709175263</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,16 +5525,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.050282208978</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2472.724095295529</v>
+        <v>2523.375184062123</v>
       </c>
       <c r="C20" t="n">
-        <v>2034.581622478952</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419991</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578286</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874942</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107581</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U20" t="n">
-        <v>4493.924657556612</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
-        <v>4131.307707490439</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W20" t="n">
-        <v>3726.452252901472</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3307.309789480783</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y20" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.674754547031</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.891962983371</v>
+        <v>999.0870832547529</v>
       </c>
       <c r="C22" t="n">
-        <v>863.330251466596</v>
+        <v>826.5253717379778</v>
       </c>
       <c r="D22" t="n">
-        <v>697.4522586681187</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E22" t="n">
-        <v>527.694254918856</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F22" t="n">
-        <v>350.9872008806122</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G22" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
         <v>185.3959259064399</v>
@@ -5917,7 +5917,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.098318867742</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2167.665318120847</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1880.709809991278</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
-        <v>1608.683405577569</v>
+        <v>1663.717127326219</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.291650910982</v>
+        <v>1418.325372659632</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.87198022509</v>
+        <v>1190.90570197374</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2143.709296755306</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957673</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789922</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805149</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312521</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930083</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1565.470477009815</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,19 +6470,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258797</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,10 +6704,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937637</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>451.8971520785114</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292487</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910048</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127508</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1808.315271308948</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1536.288866895239</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1290.897112228652</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1063.47744154276</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309358</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>645.8766848899143</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831958</v>
+        <v>476.1186811406515</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024077</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282354</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>308.3808099909324</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564047</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231411</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662683</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791943</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.14457787893036</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>268.0111327346207</v>
       </c>
     </row>
     <row r="12">
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>185.1957776566193</v>
       </c>
       <c r="H14" t="n">
-        <v>184.7831561774901</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>26.70948359397272</v>
       </c>
       <c r="V16" t="n">
-        <v>88.19489769745758</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>268.0111327346221</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>49.73195639979937</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>185.1957776566199</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.92021546249549</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>33.27974144948204</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.259235827647</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>88.19489769745726</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>140.7232059832937</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>59.30510368402695</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>107.259235827648</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>701984.2726463245</v>
+        <v>707815.8317373368</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>701984.2726463245</v>
+        <v>709467.1738809249</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703071.955515445</v>
+        <v>709467.1738809249</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>683227.0759723261</v>
+        <v>683227.0759723263</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>683227.0759723261</v>
+        <v>683227.0759723262</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683227.0759723261</v>
+        <v>683227.0759723262</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712060.0393142543</v>
+        <v>712060.0393142544</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712060.0393142544</v>
+        <v>712060.0393142545</v>
       </c>
     </row>
     <row r="16">
@@ -26320,7 +26320,7 @@
         <v>254669.976947944</v>
       </c>
       <c r="E2" t="n">
-        <v>240123.8515365463</v>
+        <v>240123.8515365464</v>
       </c>
       <c r="F2" t="n">
         <v>240123.8515365463</v>
@@ -26353,7 +26353,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="P2" t="n">
-        <v>250257.3524652424</v>
+        <v>250257.3524652425</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200317</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510303</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104672</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485738</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449366</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960743</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.7881796074</v>
+        <v>39457.78817960747</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41122.9519299127</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41122.95192991276</v>
+      </c>
+      <c r="O4" t="n">
+        <v>41122.95192991271</v>
+      </c>
+      <c r="P4" t="n">
         <v>41122.95192991272</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41122.95192991271</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41122.95192991272</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41122.9519299127</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846978</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134510.6449048015</v>
+        <v>-172007.7986626744</v>
       </c>
       <c r="C6" t="n">
-        <v>7680.655754908461</v>
+        <v>23733.16077337503</v>
       </c>
       <c r="D6" t="n">
-        <v>1552.721482534427</v>
+        <v>41073.70514728183</v>
       </c>
       <c r="E6" t="n">
-        <v>-96652.57267273549</v>
+        <v>-34664.91268561988</v>
       </c>
       <c r="F6" t="n">
-        <v>127146.7210792913</v>
+        <v>127070.1625244945</v>
       </c>
       <c r="G6" t="n">
-        <v>127146.7210792914</v>
+        <v>127070.1625244945</v>
       </c>
       <c r="H6" t="n">
-        <v>127146.7210792914</v>
+        <v>127070.1625244945</v>
       </c>
       <c r="I6" t="n">
-        <v>113051.4462966976</v>
+        <v>113028.221957315</v>
       </c>
       <c r="J6" t="n">
-        <v>20401.69658454697</v>
+        <v>-29214.89189545867</v>
       </c>
       <c r="K6" t="n">
-        <v>131416.1619295371</v>
+        <v>117578.9290223093</v>
       </c>
       <c r="L6" t="n">
-        <v>122468.5508410268</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="M6" t="n">
-        <v>-55374.82468093006</v>
+        <v>-3597.007022848896</v>
       </c>
       <c r="N6" t="n">
-        <v>131416.1619295372</v>
+        <v>131392.9375901545</v>
       </c>
       <c r="O6" t="n">
-        <v>131416.1619295372</v>
+        <v>131392.9375901546</v>
       </c>
       <c r="P6" t="n">
-        <v>131416.1619295372</v>
+        <v>131392.9375901546</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825284</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>319.1984854881359</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>212.040926853775</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>126.8048373818603</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>119.1227798324718</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>101.6465624574855</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>154.9299398130871</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>144.4161779219607</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7675277456004</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>65.488005804594</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>123.9775241805548</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.15987277746899e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>308.3808099909324</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314109</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564047</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314109</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.649193231411</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662683</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.9394033791943</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807141</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36756,22 +36756,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37947,10 +37947,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,19 +38181,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
